--- a/AUDITORIA DE COMPRAS JAN e FEV.xlsx
+++ b/AUDITORIA DE COMPRAS JAN e FEV.xlsx
@@ -5,38 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/analnf_al_insper_edu_br/Documents/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laiz\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{494E6669-770A-471E-8C25-535D5A5C9E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{501DFC9C-CEC3-452B-85D6-BE919AC86EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A9D00FD-E571-4EB1-8868-03193A1F9D25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0822E980-06EF-4B47-81F5-C10255C95485}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="AUDITORIA DE COMPRAS JAN e FEV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="123">
+  <si>
+    <t>N</t>
+  </si>
   <si>
     <t>DATA</t>
   </si>
@@ -50,22 +37,10 @@
     <t>AP</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>ANALISE DE AUDITORIA</t>
+  </si>
+  <si>
+    <t>PLANO DE AÇAO</t>
   </si>
   <si>
     <t>RESPONSAVEL</t>
@@ -134,10 +109,11 @@
     <t>solicitamos lista de itens s/ necessidade de cotação -  retorno ok anexado -</t>
   </si>
   <si>
+    <t xml:space="preserve">
+26/02/2024</t>
+  </si>
+  <si>
     <t>CONFORME</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Na solicitação de compras, está s/necessidade de cotação</t>
@@ -189,6 +165,10 @@
 item sem contação, verificar com o gestor o porque não está sendo feito a cotação</t>
   </si>
   <si>
+    <t xml:space="preserve">
+09/02/2024</t>
+  </si>
+  <si>
     <t>solicitamos lista de itens sem necessidade de cotação - retorno - ok</t>
   </si>
   <si>
@@ -199,6 +179,9 @@
   </si>
   <si>
     <t>Pedido cancelado - Solicitação incompleta</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>1 cotação</t>
@@ -257,6 +240,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+08/02/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email para o Vitor - retorno ok anexado - 
 </t>
   </si>
@@ -274,6 +261,10 @@
     <t xml:space="preserve">Email para o Renan - retorno ok anexado </t>
   </si>
   <si>
+    <t xml:space="preserve">
+12/02/2024</t>
+  </si>
+  <si>
     <t>Pedido de compra Livre obs: venc 16/02</t>
   </si>
   <si>
@@ -281,6 +272,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+16/02/2024</t>
+  </si>
+  <si>
     <t>Pedido urgente - justificativa anexada - venc 16/02</t>
   </si>
   <si>
@@ -306,6 +301,10 @@
     <t>Email para o Bruna - retorno ok</t>
   </si>
   <si>
+    <t xml:space="preserve">
+23/02/2024</t>
+  </si>
+  <si>
     <t>Pedido de urgencia - obs: venc 19/02</t>
   </si>
   <si>
@@ -323,6 +322,10 @@
  comprovante de pagamento ok</t>
   </si>
   <si>
+    <t xml:space="preserve">
+20/02/2024</t>
+  </si>
+  <si>
     <t>Pedido de urgencia - obs: venc 20/02</t>
   </si>
   <si>
@@ -330,10 +333,22 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+20/02/2025</t>
+  </si>
+  <si>
     <t>Pedido ok - obs: venc 21/03</t>
   </si>
   <si>
+    <t xml:space="preserve">
+21/03/2024</t>
+  </si>
+  <si>
     <t>Pedido ok -  obs: venc 19/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+19/02/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Pedido urgente - </t>
@@ -400,62 +415,13 @@
   <si>
     <t>email para saber p motivo de não ter cotações -  verificar com o gestor o porque não 
 está sendo feito a cotação</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ANALISE DE AUDITORIA</t>
-  </si>
-  <si>
-    <t>PLANO DE AÇAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-26/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-09/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-08/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-12/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-16/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-23/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-20/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-20/02/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-21/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-19/02/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,20 +430,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -486,59 +747,212 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="42">
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{0247DEDB-FE47-4235-84BA-95F6E70E6D43}"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -869,95 +1283,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7455D1CC-78B4-4D0C-A974-92DFCBE04171}">
-  <dimension ref="A1:AA65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678FCDB7-C1F7-4074-BBE8-71B07C0F76C4}">
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="106" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="57.109375" customWidth="1"/>
-    <col min="13" max="13" width="131.88671875" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="68.88671875" customWidth="1"/>
+    <col min="13" max="13" width="149.77734375" customWidth="1"/>
+    <col min="14" max="14" width="25.21875" customWidth="1"/>
+    <col min="15" max="15" width="29.109375" customWidth="1"/>
+    <col min="16" max="16" width="30.33203125" customWidth="1"/>
+    <col min="17" max="17" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -965,7 +1365,7 @@
         <v>45303</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>1161</v>
@@ -974,53 +1374,43 @@
         <v>5395</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O2" s="2">
         <v>45334</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1028,7 +1418,7 @@
         <v>45306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>257</v>
@@ -1037,53 +1427,43 @@
         <v>2871</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O3" s="2">
         <v>45334</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1091,7 +1471,7 @@
         <v>45306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>251</v>
@@ -1100,53 +1480,43 @@
         <v>2851</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O4" s="2">
         <v>45334</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1154,7 +1524,7 @@
         <v>45306</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>256</v>
@@ -1163,53 +1533,43 @@
         <v>2853</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O5" s="2">
         <v>45334</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1217,7 +1577,7 @@
         <v>45306</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>268</v>
@@ -1226,53 +1586,43 @@
         <v>3097</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O6" s="2">
         <v>45334</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1280,7 +1630,7 @@
         <v>45306</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>561</v>
@@ -1289,53 +1639,43 @@
         <v>3382</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O7" s="2">
         <v>45334</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1343,7 +1683,7 @@
         <v>45306</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>1493</v>
@@ -1352,53 +1692,43 @@
         <v>7007</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O8" s="2">
         <v>45334</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1406,7 +1736,7 @@
         <v>45303</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>1028734031</v>
@@ -1415,53 +1745,43 @@
         <v>1071</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O9" s="2">
         <v>45315</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1469,7 +1789,7 @@
         <v>45303</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>1054101001</v>
@@ -1478,53 +1798,43 @@
         <v>1385</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O10" s="2">
         <v>45406</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1532,7 +1842,7 @@
         <v>45307</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>1972</v>
@@ -1541,53 +1851,43 @@
         <v>7666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="O11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1595,7 +1895,7 @@
         <v>45309</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>2516</v>
@@ -1604,53 +1904,43 @@
         <v>28575</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O12" s="2">
         <v>45334</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1658,7 +1948,7 @@
         <v>45310</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
         <v>1049</v>
@@ -1667,53 +1957,43 @@
         <v>9507</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O13" s="2">
         <v>45316</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1721,7 +2001,7 @@
         <v>45313</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
         <v>1571</v>
@@ -1730,53 +2010,43 @@
         <v>11522</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O14" s="2">
         <v>45315</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1784,7 +2054,7 @@
         <v>45316</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
         <v>2057</v>
@@ -1793,53 +2063,43 @@
         <v>7877</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O15" s="2">
         <v>45317</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1847,7 +2107,7 @@
         <v>45317</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>1927</v>
@@ -1856,53 +2116,43 @@
         <v>7544</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="O16" s="2">
         <v>45322</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1910,7 +2160,7 @@
         <v>45317</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
         <v>1836</v>
@@ -1919,53 +2169,43 @@
         <v>7503</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O17" s="2">
         <v>45322</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1973,7 +2213,7 @@
         <v>45320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1">
         <v>1991</v>
@@ -1982,53 +2222,43 @@
         <v>7997</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O18" s="2">
         <v>45320</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2036,7 +2266,7 @@
         <v>45320</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>38</v>
@@ -2045,53 +2275,43 @@
         <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O19" s="2">
         <v>45321</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2099,7 +2319,7 @@
         <v>45320</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>2075</v>
@@ -2108,53 +2328,43 @@
         <v>8016</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O20" s="3" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2162,7 +2372,7 @@
         <v>45307</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
         <v>1629</v>
@@ -2171,53 +2381,43 @@
         <v>7299</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O21" s="2">
         <v>45334</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2225,7 +2425,7 @@
         <v>45308</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1">
         <v>1453</v>
@@ -2234,53 +2434,43 @@
         <v>11270</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O22" s="2">
         <v>45334</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2288,7 +2478,7 @@
         <v>45313</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
         <v>1695</v>
@@ -2297,53 +2487,43 @@
         <v>123456</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O23" s="2">
         <v>45313</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2351,7 +2531,7 @@
         <v>45313</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
         <v>1520</v>
@@ -2360,53 +2540,43 @@
         <v>6456</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O24" s="2">
         <v>45334</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2414,7 +2584,7 @@
         <v>45313</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1">
         <v>1833</v>
@@ -2423,53 +2593,43 @@
         <v>7502</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O25" s="2">
         <v>45313</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2477,7 +2637,7 @@
         <v>45313</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1">
         <v>1758</v>
@@ -2486,53 +2646,43 @@
         <v>7169</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O26" s="2">
         <v>45334</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2540,7 +2690,7 @@
         <v>45313</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1">
         <v>1695</v>
@@ -2549,53 +2699,43 @@
         <v>7165</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O27" s="2">
         <v>45334</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2603,7 +2743,7 @@
         <v>45323</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1">
         <v>1639</v>
@@ -2612,53 +2752,43 @@
         <v>12349</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O28" s="2">
         <v>45323</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2666,7 +2796,7 @@
         <v>45323</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
         <v>2120</v>
@@ -2675,51 +2805,41 @@
         <v>8067</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O29" s="2">
         <v>45323</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2727,7 +2847,7 @@
         <v>45324</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -2736,53 +2856,43 @@
         <v>12570</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="O30" s="2">
         <v>45323</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2790,7 +2900,7 @@
         <v>45327</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1">
         <v>1753</v>
@@ -2799,53 +2909,43 @@
         <v>12952</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="P31" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2853,7 +2953,7 @@
         <v>45327</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1">
         <v>1796</v>
@@ -2862,53 +2962,43 @@
         <v>12349</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O32" s="2">
         <v>45331</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-    </row>
-    <row r="33" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2916,7 +3006,7 @@
         <v>45330</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1">
         <v>1818</v>
@@ -2925,53 +3015,43 @@
         <v>12879</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="O33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="P33" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-    </row>
-    <row r="34" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2979,7 +3059,7 @@
         <v>45330</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="1">
         <v>1840</v>
@@ -2988,53 +3068,43 @@
         <v>12922</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O34" s="3" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3042,7 +3112,7 @@
         <v>45330</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1">
         <v>1963</v>
@@ -3051,53 +3121,43 @@
         <v>8288</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3105,7 +3165,7 @@
         <v>45330</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1">
         <v>1768</v>
@@ -3114,22 +3174,22 @@
         <v>12457</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>75</v>
@@ -3138,29 +3198,19 @@
         <v>76</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3168,7 +3218,7 @@
         <v>45330</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
         <v>2012</v>
@@ -3177,53 +3227,43 @@
         <v>7966</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M37" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="M37" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="N37" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3231,7 +3271,7 @@
         <v>45330</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
         <v>1628</v>
@@ -3240,51 +3280,41 @@
         <v>12008</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="3">
+        <v>25</v>
+      </c>
+      <c r="O38" s="2">
         <v>45338</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3292,7 +3322,7 @@
         <v>45330</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
         <v>1532</v>
@@ -3301,51 +3331,41 @@
         <v>11818</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="3">
+        <v>17</v>
+      </c>
+      <c r="O39" s="2">
         <v>45338</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-    </row>
-    <row r="40" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3353,7 +3373,7 @@
         <v>45330</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1">
         <v>1881</v>
@@ -3362,51 +3382,41 @@
         <v>7538</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3414,7 +3424,7 @@
         <v>45331</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1">
         <v>2237</v>
@@ -3423,51 +3433,41 @@
         <v>8456</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O41" s="2">
         <v>45336</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>45336</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D42" s="1">
         <v>3020224</v>
@@ -3484,53 +3484,43 @@
         <v>7526</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3538,7 +3528,7 @@
         <v>45336</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>2032</v>
@@ -3547,53 +3537,43 @@
         <v>8134</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3601,7 +3581,7 @@
         <v>45336</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1">
         <v>2038</v>
@@ -3610,53 +3590,43 @@
         <v>8128</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3664,7 +3634,7 @@
         <v>45336</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1">
         <v>1691</v>
@@ -3673,53 +3643,43 @@
         <v>12443</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3727,7 +3687,7 @@
         <v>45336</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" s="1">
         <v>1690</v>
@@ -3736,51 +3696,41 @@
         <v>12442</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3788,7 +3738,7 @@
         <v>45336</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1">
         <v>1933</v>
@@ -3797,51 +3747,41 @@
         <v>7542</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-    </row>
-    <row r="48" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3849,7 +3789,7 @@
         <v>45336</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D48" s="1">
         <v>1463</v>
@@ -3858,53 +3798,43 @@
         <v>6405</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3912,7 +3842,7 @@
         <v>45343</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D49" s="1">
         <v>50</v>
@@ -3921,53 +3851,43 @@
         <v>13250</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O49" s="5">
+        <v>108</v>
+      </c>
+      <c r="O49" s="2">
         <v>45345</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3975,7 +3895,7 @@
         <v>45345</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1">
         <v>1787</v>
@@ -3984,53 +3904,43 @@
         <v>12585</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O50" s="3">
+        <v>38</v>
+      </c>
+      <c r="O50" s="2">
         <v>45351</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4038,7 +3948,7 @@
         <v>45345</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D51" s="1">
         <v>1969</v>
@@ -4047,51 +3957,41 @@
         <v>7662</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O51" s="2">
         <v>45348</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4099,7 +3999,7 @@
         <v>45345</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1">
         <v>1971</v>
@@ -4108,51 +4008,41 @@
         <v>7665</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O52" s="2">
         <v>45348</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-    </row>
-    <row r="53" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4160,7 +4050,7 @@
         <v>45345</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D53" s="1">
         <v>3340324</v>
@@ -4169,51 +4059,41 @@
         <v>7772</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4221,7 +4101,7 @@
         <v>45345</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" s="1">
         <v>1606</v>
@@ -4230,53 +4110,43 @@
         <v>11653</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O54" s="3">
+        <v>38</v>
+      </c>
+      <c r="O54" s="2">
         <v>45352</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-    </row>
-    <row r="55" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4284,7 +4154,7 @@
         <v>45345</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1">
         <v>2407</v>
@@ -4293,61 +4163,51 @@
         <v>8899</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="2">
         <v>45350</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D56" s="1">
         <v>1889</v>
@@ -4356,51 +4216,41 @@
         <v>13130</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O56" s="5">
+        <v>25</v>
+      </c>
+      <c r="O56" s="2">
         <v>45350</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4408,7 +4258,7 @@
         <v>45350</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" s="1">
         <v>2311</v>
@@ -4417,283 +4267,41 @@
         <v>8643</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O57" s="2">
         <v>45350</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/AUDITORIA DE COMPRAS JAN e FEV.xlsx
+++ b/AUDITORIA DE COMPRAS JAN e FEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laiz\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{501DFC9C-CEC3-452B-85D6-BE919AC86EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA02BB6-C7AE-4D9B-9770-CC3648EC6F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0822E980-06EF-4B47-81F5-C10255C95485}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="125">
   <si>
     <t>N</t>
   </si>
@@ -415,13 +415,19 @@
   <si>
     <t>email para saber p motivo de não ter cotações -  verificar com o gestor o porque não 
 está sendo feito a cotação</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>gigibrantt@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +558,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -898,7 +912,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -908,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1284,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678FCDB7-C1F7-4074-BBE8-71B07C0F76C4}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,9 +1319,10 @@
     <col min="15" max="15" width="29.109375" customWidth="1"/>
     <col min="16" max="16" width="30.33203125" customWidth="1"/>
     <col min="17" max="17" width="39.21875" customWidth="1"/>
+    <col min="18" max="18" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
@@ -1356,8 +1374,11 @@
       <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1400,8 +1421,8 @@
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2">
-        <v>45334</v>
+      <c r="O2" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>18</v>
@@ -1409,8 +1430,11 @@
       <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1453,8 +1477,8 @@
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="2">
-        <v>45334</v>
+      <c r="O3" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>18</v>
@@ -1462,8 +1486,11 @@
       <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1500,14 +1527,14 @@
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="2">
-        <v>45334</v>
+      <c r="O4" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>18</v>
@@ -1515,8 +1542,11 @@
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1559,8 +1589,8 @@
       <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="2">
-        <v>45334</v>
+      <c r="O5" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>18</v>
@@ -1568,8 +1598,11 @@
       <c r="Q5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1612,8 +1645,8 @@
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="2">
-        <v>45334</v>
+      <c r="O6" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>18</v>
@@ -1621,8 +1654,11 @@
       <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1656,7 +1692,7 @@
       <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1665,8 +1701,8 @@
       <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="2">
-        <v>45334</v>
+      <c r="O7" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>18</v>
@@ -1674,8 +1710,11 @@
       <c r="Q7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1718,8 +1757,8 @@
       <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="2">
-        <v>45334</v>
+      <c r="O8" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>18</v>
@@ -1727,8 +1766,11 @@
       <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1771,8 +1813,8 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="2">
-        <v>45315</v>
+      <c r="O9" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>18</v>
@@ -1780,8 +1822,11 @@
       <c r="Q9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="2">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1824,8 +1869,8 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="2">
-        <v>45406</v>
+      <c r="O10" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>18</v>
@@ -1833,8 +1878,11 @@
       <c r="Q10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="2">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1877,8 +1925,8 @@
       <c r="N11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>29</v>
+      <c r="O11" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>18</v>
@@ -1886,8 +1934,11 @@
       <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1930,8 +1981,8 @@
       <c r="N12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="2">
-        <v>45334</v>
+      <c r="O12" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>18</v>
@@ -1939,8 +1990,11 @@
       <c r="Q12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1983,8 +2037,8 @@
       <c r="N13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="2">
-        <v>45316</v>
+      <c r="O13" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>18</v>
@@ -1992,8 +2046,11 @@
       <c r="Q13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="2">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2036,8 +2093,8 @@
       <c r="N14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="2">
-        <v>45315</v>
+      <c r="O14" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>18</v>
@@ -2045,8 +2102,11 @@
       <c r="Q14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="2">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2089,8 +2149,8 @@
       <c r="N15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="2">
-        <v>45317</v>
+      <c r="O15" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>18</v>
@@ -2098,8 +2158,11 @@
       <c r="Q15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="2">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2142,8 +2205,8 @@
       <c r="N16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="2">
-        <v>45322</v>
+      <c r="O16" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>18</v>
@@ -2151,8 +2214,11 @@
       <c r="Q16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2195,8 +2261,8 @@
       <c r="N17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="2">
-        <v>45322</v>
+      <c r="O17" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>18</v>
@@ -2204,8 +2270,11 @@
       <c r="Q17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2248,8 +2317,8 @@
       <c r="N18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="2">
-        <v>45320</v>
+      <c r="O18" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>18</v>
@@ -2257,8 +2326,11 @@
       <c r="Q18" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2301,8 +2373,8 @@
       <c r="N19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="2">
-        <v>45321</v>
+      <c r="O19" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>18</v>
@@ -2310,8 +2382,11 @@
       <c r="Q19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2354,8 +2429,8 @@
       <c r="N20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>47</v>
+      <c r="O20" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>18</v>
@@ -2363,8 +2438,11 @@
       <c r="Q20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2407,8 +2485,8 @@
       <c r="N21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="2">
-        <v>45334</v>
+      <c r="O21" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>18</v>
@@ -2416,8 +2494,11 @@
       <c r="Q21" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2460,8 +2541,8 @@
       <c r="N22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="2">
-        <v>45334</v>
+      <c r="O22" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>18</v>
@@ -2469,8 +2550,11 @@
       <c r="Q22" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2513,8 +2597,8 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="2">
-        <v>45313</v>
+      <c r="O23" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>18</v>
@@ -2522,8 +2606,11 @@
       <c r="Q23" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="2">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2566,8 +2653,8 @@
       <c r="N24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="2">
-        <v>45334</v>
+      <c r="O24" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>18</v>
@@ -2575,8 +2662,11 @@
       <c r="Q24" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2619,8 +2709,8 @@
       <c r="N25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="2">
-        <v>45313</v>
+      <c r="O25" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>18</v>
@@ -2628,8 +2718,11 @@
       <c r="Q25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="2">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2672,8 +2765,8 @@
       <c r="N26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="2">
-        <v>45334</v>
+      <c r="O26" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>18</v>
@@ -2681,8 +2774,11 @@
       <c r="Q26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2725,8 +2821,8 @@
       <c r="N27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="2">
-        <v>45334</v>
+      <c r="O27" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>18</v>
@@ -2734,8 +2830,11 @@
       <c r="Q27" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="2">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2778,8 +2877,8 @@
       <c r="N28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O28" s="2">
-        <v>45323</v>
+      <c r="O28" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>18</v>
@@ -2787,8 +2886,11 @@
       <c r="Q28" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2829,8 +2931,8 @@
       <c r="N29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O29" s="2">
-        <v>45323</v>
+      <c r="O29" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>18</v>
@@ -2838,8 +2940,11 @@
       <c r="Q29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2882,8 +2987,8 @@
       <c r="N30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O30" s="2">
-        <v>45323</v>
+      <c r="O30" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>18</v>
@@ -2891,8 +2996,11 @@
       <c r="Q30" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2935,8 +3043,8 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>65</v>
+      <c r="O31" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>18</v>
@@ -2944,8 +3052,11 @@
       <c r="Q31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2988,8 +3099,8 @@
       <c r="N32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O32" s="2">
-        <v>45331</v>
+      <c r="O32" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>18</v>
@@ -2997,8 +3108,11 @@
       <c r="Q32" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="2">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3041,8 +3155,8 @@
       <c r="N33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>71</v>
+      <c r="O33" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>18</v>
@@ -3050,8 +3164,11 @@
       <c r="Q33" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3094,8 +3211,8 @@
       <c r="N34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>71</v>
+      <c r="O34" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>18</v>
@@ -3103,8 +3220,11 @@
       <c r="Q34" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3147,8 +3267,8 @@
       <c r="N35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>71</v>
+      <c r="O35" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>18</v>
@@ -3156,8 +3276,11 @@
       <c r="Q35" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3200,8 +3323,8 @@
       <c r="N36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>77</v>
+      <c r="O36" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>18</v>
@@ -3209,8 +3332,11 @@
       <c r="Q36" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R36" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3253,8 +3379,8 @@
       <c r="N37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="3" t="s">
-        <v>80</v>
+      <c r="O37" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>18</v>
@@ -3262,8 +3388,11 @@
       <c r="Q37" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3304,8 +3433,8 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="2">
-        <v>45338</v>
+      <c r="O38" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>18</v>
@@ -3313,8 +3442,11 @@
       <c r="Q38" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="2">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3355,8 +3487,8 @@
       <c r="N39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O39" s="2">
-        <v>45338</v>
+      <c r="O39" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>18</v>
@@ -3364,8 +3496,11 @@
       <c r="Q39" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R39" s="2">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3406,8 +3541,8 @@
       <c r="N40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O40" s="3" t="s">
-        <v>84</v>
+      <c r="O40" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>18</v>
@@ -3415,8 +3550,11 @@
       <c r="Q40" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3457,8 +3595,8 @@
       <c r="N41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O41" s="2">
-        <v>45336</v>
+      <c r="O41" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>18</v>
@@ -3466,8 +3604,11 @@
       <c r="Q41" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R41" s="2">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3510,8 +3651,8 @@
       <c r="N42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>89</v>
+      <c r="O42" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>18</v>
@@ -3519,8 +3660,11 @@
       <c r="Q42" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R42" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3563,8 +3707,8 @@
       <c r="N43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>92</v>
+      <c r="O43" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>18</v>
@@ -3572,8 +3716,11 @@
       <c r="Q43" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3616,8 +3763,8 @@
       <c r="N44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>95</v>
+      <c r="O44" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>18</v>
@@ -3625,8 +3772,11 @@
       <c r="Q44" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3669,8 +3819,8 @@
       <c r="N45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>98</v>
+      <c r="O45" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>18</v>
@@ -3678,8 +3828,11 @@
       <c r="Q45" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3720,8 +3873,8 @@
       <c r="N46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>100</v>
+      <c r="O46" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>18</v>
@@ -3729,8 +3882,11 @@
       <c r="Q46" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R46" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3771,8 +3927,8 @@
       <c r="N47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>102</v>
+      <c r="O47" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>18</v>
@@ -3780,8 +3936,11 @@
       <c r="Q47" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R47" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3824,8 +3983,8 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>89</v>
+      <c r="O48" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>18</v>
@@ -3833,8 +3992,11 @@
       <c r="Q48" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R48" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3877,8 +4039,8 @@
       <c r="N49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O49" s="2">
-        <v>45345</v>
+      <c r="O49" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>18</v>
@@ -3886,8 +4048,11 @@
       <c r="Q49" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R49" s="2">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3930,8 +4095,8 @@
       <c r="N50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="2">
-        <v>45351</v>
+      <c r="O50" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>18</v>
@@ -3939,8 +4104,11 @@
       <c r="Q50" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3981,8 +4149,8 @@
       <c r="N51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="2">
-        <v>45348</v>
+      <c r="O51" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>18</v>
@@ -3990,8 +4158,11 @@
       <c r="Q51" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" s="2">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4032,8 +4203,8 @@
       <c r="N52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O52" s="2">
-        <v>45348</v>
+      <c r="O52" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>18</v>
@@ -4041,8 +4212,11 @@
       <c r="Q52" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R52" s="2">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4083,8 +4257,8 @@
       <c r="N53" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O53" s="3" t="s">
-        <v>114</v>
+      <c r="O53" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>18</v>
@@ -4092,8 +4266,11 @@
       <c r="Q53" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R53" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4136,8 +4313,8 @@
       <c r="N54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="2">
-        <v>45352</v>
+      <c r="O54" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>18</v>
@@ -4145,8 +4322,11 @@
       <c r="Q54" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R54" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4189,8 +4369,8 @@
       <c r="N55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O55" s="3" t="s">
-        <v>89</v>
+      <c r="O55" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>18</v>
@@ -4198,8 +4378,11 @@
       <c r="Q55" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4240,8 +4423,8 @@
       <c r="N56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="2">
-        <v>45350</v>
+      <c r="O56" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>18</v>
@@ -4249,8 +4432,11 @@
       <c r="Q56" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R56" s="2">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4293,14 +4479,17 @@
       <c r="N57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O57" s="2">
-        <v>45350</v>
+      <c r="O57" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="R57" s="2">
+        <v>45350</v>
       </c>
     </row>
   </sheetData>

--- a/AUDITORIA DE COMPRAS JAN e FEV.xlsx
+++ b/AUDITORIA DE COMPRAS JAN e FEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laiz\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA02BB6-C7AE-4D9B-9770-CC3648EC6F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853AD401-DC1D-4532-8838-EB47D4699A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0822E980-06EF-4B47-81F5-C10255C95485}"/>
   </bookViews>
@@ -427,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,14 +558,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -912,19 +904,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1303,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678FCDB7-C1F7-4074-BBE8-71B07C0F76C4}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1516,7 @@
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -1692,7 +1681,7 @@
       <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">

--- a/AUDITORIA DE COMPRAS JAN e FEV.xlsx
+++ b/AUDITORIA DE COMPRAS JAN e FEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laiz\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853AD401-DC1D-4532-8838-EB47D4699A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419CF0D8-0920-477C-A373-7C87A126D01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0822E980-06EF-4B47-81F5-C10255C95485}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="123">
   <si>
     <t>N</t>
   </si>
@@ -415,12 +415,6 @@
   <si>
     <t>email para saber p motivo de não ter cotações -  verificar com o gestor o porque não 
 está sendo feito a cotação</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>gigibrantt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -906,13 +900,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1290,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678FCDB7-C1F7-4074-BBE8-71B07C0F76C4}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,13 +1299,12 @@
     <col min="12" max="12" width="68.88671875" customWidth="1"/>
     <col min="13" max="13" width="149.77734375" customWidth="1"/>
     <col min="14" max="14" width="25.21875" customWidth="1"/>
-    <col min="15" max="15" width="29.109375" customWidth="1"/>
-    <col min="16" max="16" width="30.33203125" customWidth="1"/>
-    <col min="17" max="17" width="39.21875" customWidth="1"/>
-    <col min="18" max="18" width="29.109375" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" customWidth="1"/>
+    <col min="16" max="16" width="39.21875" customWidth="1"/>
+    <col min="17" max="17" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,19 +1348,16 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1410,20 +1400,17 @@
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>124</v>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="2">
+      <c r="Q2" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1466,20 +1453,17 @@
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>124</v>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="2">
+      <c r="Q3" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1522,20 +1506,17 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>124</v>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="2">
+      <c r="Q4" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1578,20 +1559,17 @@
       <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>124</v>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="2">
+      <c r="Q5" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1634,20 +1612,17 @@
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>124</v>
+      <c r="O6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="2">
+      <c r="Q6" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1690,20 +1665,17 @@
       <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>124</v>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="2">
+      <c r="Q7" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1746,20 +1718,17 @@
       <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>124</v>
+      <c r="O8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="2">
+      <c r="Q8" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1802,20 +1771,17 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>124</v>
+      <c r="O9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="2">
+      <c r="Q9" s="2">
         <v>45315</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1858,20 +1824,17 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>124</v>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="2">
+      <c r="Q10" s="2">
         <v>45406</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1914,20 +1877,17 @@
       <c r="N11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>124</v>
+      <c r="O11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1970,20 +1930,17 @@
       <c r="N12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>124</v>
+      <c r="O12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="2">
+      <c r="Q12" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2026,20 +1983,17 @@
       <c r="N13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>124</v>
+      <c r="O13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="2">
+      <c r="Q13" s="2">
         <v>45316</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2082,20 +2036,17 @@
       <c r="N14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>124</v>
+      <c r="O14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="2">
+      <c r="Q14" s="2">
         <v>45315</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2138,20 +2089,17 @@
       <c r="N15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>124</v>
+      <c r="O15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="2">
+      <c r="Q15" s="2">
         <v>45317</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2194,20 +2142,17 @@
       <c r="N16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>124</v>
+      <c r="O16" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="2">
+      <c r="Q16" s="2">
         <v>45322</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2250,20 +2195,17 @@
       <c r="N17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>124</v>
+      <c r="O17" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R17" s="2">
+      <c r="Q17" s="2">
         <v>45322</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2306,20 +2248,17 @@
       <c r="N18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>124</v>
+      <c r="O18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="2">
+      <c r="Q18" s="2">
         <v>45320</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2362,20 +2301,17 @@
       <c r="N19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>124</v>
+      <c r="O19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R19" s="2">
+      <c r="Q19" s="2">
         <v>45321</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2418,20 +2354,17 @@
       <c r="N20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>124</v>
+      <c r="O20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2474,20 +2407,17 @@
       <c r="N21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>124</v>
+      <c r="O21" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="2">
+      <c r="Q21" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2530,20 +2460,17 @@
       <c r="N22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>124</v>
+      <c r="O22" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="2">
+      <c r="Q22" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2586,20 +2513,17 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>124</v>
+      <c r="O23" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="2">
+      <c r="Q23" s="2">
         <v>45313</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2642,20 +2566,17 @@
       <c r="N24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>124</v>
+      <c r="O24" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R24" s="2">
+      <c r="Q24" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2698,20 +2619,17 @@
       <c r="N25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>124</v>
+      <c r="O25" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R25" s="2">
+      <c r="Q25" s="2">
         <v>45313</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2754,20 +2672,17 @@
       <c r="N26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>124</v>
+      <c r="O26" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="2">
+      <c r="Q26" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2810,20 +2725,17 @@
       <c r="N27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>124</v>
+      <c r="O27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="2">
+      <c r="Q27" s="2">
         <v>45334</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2866,20 +2778,17 @@
       <c r="N28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>124</v>
+      <c r="O28" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R28" s="2">
+      <c r="Q28" s="2">
         <v>45323</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2920,20 +2829,17 @@
       <c r="N29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>124</v>
+      <c r="O29" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R29" s="2">
+      <c r="Q29" s="2">
         <v>45323</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2976,20 +2882,17 @@
       <c r="N30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>124</v>
+      <c r="O30" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R30" s="2">
+      <c r="Q30" s="2">
         <v>45323</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3032,20 +2935,17 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>124</v>
+      <c r="O31" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3088,20 +2988,17 @@
       <c r="N32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>124</v>
+      <c r="O32" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R32" s="2">
+      <c r="Q32" s="2">
         <v>45331</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3144,20 +3041,17 @@
       <c r="N33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>124</v>
+      <c r="O33" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3200,20 +3094,17 @@
       <c r="N34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>124</v>
+      <c r="O34" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3256,20 +3147,17 @@
       <c r="N35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>124</v>
+      <c r="O35" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3312,20 +3200,17 @@
       <c r="N36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>124</v>
+      <c r="O36" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3368,20 +3253,17 @@
       <c r="N37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>124</v>
+      <c r="O37" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3422,20 +3304,17 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>124</v>
+      <c r="O38" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R38" s="2">
+      <c r="Q38" s="2">
         <v>45338</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3476,20 +3355,17 @@
       <c r="N39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>124</v>
+      <c r="O39" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R39" s="2">
+      <c r="Q39" s="2">
         <v>45338</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3530,20 +3406,17 @@
       <c r="N40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>124</v>
+      <c r="O40" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3584,20 +3457,17 @@
       <c r="N41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O41" s="2" t="s">
-        <v>124</v>
+      <c r="O41" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R41" s="2">
+      <c r="Q41" s="2">
         <v>45336</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3640,20 +3510,17 @@
       <c r="N42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>124</v>
+      <c r="O42" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3696,20 +3563,17 @@
       <c r="N43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="2" t="s">
-        <v>124</v>
+      <c r="O43" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3752,20 +3616,17 @@
       <c r="N44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>124</v>
+      <c r="O44" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3808,20 +3669,17 @@
       <c r="N45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>124</v>
+      <c r="O45" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3862,20 +3720,17 @@
       <c r="N46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>124</v>
+      <c r="O46" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3916,20 +3771,17 @@
       <c r="N47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O47" s="2" t="s">
-        <v>124</v>
+      <c r="O47" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3972,20 +3824,17 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="2" t="s">
-        <v>124</v>
+      <c r="O48" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4028,20 +3877,17 @@
       <c r="N49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O49" s="2" t="s">
-        <v>124</v>
+      <c r="O49" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R49" s="2">
+      <c r="Q49" s="2">
         <v>45345</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4084,20 +3930,17 @@
       <c r="N50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="2" t="s">
-        <v>124</v>
+      <c r="O50" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R50" s="2">
+      <c r="Q50" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4138,20 +3981,17 @@
       <c r="N51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="2" t="s">
-        <v>124</v>
+      <c r="O51" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R51" s="2">
+      <c r="Q51" s="2">
         <v>45348</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4192,20 +4032,17 @@
       <c r="N52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O52" s="2" t="s">
-        <v>124</v>
+      <c r="O52" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R52" s="2">
+      <c r="Q52" s="2">
         <v>45348</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4246,20 +4083,17 @@
       <c r="N53" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O53" s="2" t="s">
-        <v>124</v>
+      <c r="O53" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="Q53" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4302,20 +4136,17 @@
       <c r="N54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O54" s="2" t="s">
-        <v>124</v>
+      <c r="O54" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R54" s="2">
+      <c r="Q54" s="2">
         <v>45352</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4358,20 +4189,17 @@
       <c r="N55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O55" s="2" t="s">
-        <v>124</v>
+      <c r="O55" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="Q55" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4412,20 +4240,17 @@
       <c r="N56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="2" t="s">
-        <v>124</v>
+      <c r="O56" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R56" s="2">
+      <c r="Q56" s="2">
         <v>45350</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4468,16 +4293,13 @@
       <c r="N57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O57" s="2" t="s">
-        <v>124</v>
+      <c r="O57" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R57" s="2">
+      <c r="Q57" s="2">
         <v>45350</v>
       </c>
     </row>
